--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>184756</v>
+        <v>186262.312244738</v>
       </c>
       <c r="C2">
-        <v>268983</v>
+        <v>270117.1320619749</v>
       </c>
       <c r="D2">
-        <v>314545</v>
+        <v>316273.2183627473</v>
       </c>
       <c r="E2">
-        <v>340080</v>
+        <v>341341.5844877228</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>223930</v>
+        <v>225117.3819338269</v>
       </c>
       <c r="C3">
-        <v>322014</v>
+        <v>323747.5607002651</v>
       </c>
       <c r="D3">
-        <v>372155</v>
+        <v>373956.5822425464</v>
       </c>
       <c r="E3">
-        <v>404178</v>
+        <v>405779.931373395</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>200028</v>
+        <v>201010.1057277275</v>
       </c>
       <c r="C4">
-        <v>298690</v>
+        <v>299609.6048645193</v>
       </c>
       <c r="D4">
-        <v>352419</v>
+        <v>354511.2290197113</v>
       </c>
       <c r="E4">
-        <v>386036</v>
+        <v>387666.0245078456</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>154399</v>
+        <v>155394.6062134071</v>
       </c>
       <c r="C5">
-        <v>218862</v>
+        <v>219786.4634951173</v>
       </c>
       <c r="D5">
-        <v>245364</v>
+        <v>246916.6157535585</v>
       </c>
       <c r="E5">
-        <v>269082</v>
+        <v>269805.9494044766</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>135564</v>
+        <v>136716.9600814675</v>
       </c>
       <c r="C6">
-        <v>191906</v>
+        <v>192827.5739427786</v>
       </c>
       <c r="D6">
-        <v>217646</v>
+        <v>218716.889540656</v>
       </c>
       <c r="E6">
-        <v>235294</v>
+        <v>236080.4277308756</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>14610</v>
+        <v>14675.8668519096</v>
       </c>
       <c r="C7">
-        <v>20385</v>
+        <v>20468.52016431294</v>
       </c>
       <c r="D7">
-        <v>23175</v>
+        <v>23275.2447736936</v>
       </c>
       <c r="E7">
-        <v>24915</v>
+        <v>24997.44314802386</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>700373</v>
+        <v>705765.2691399819</v>
       </c>
       <c r="C8">
-        <v>1028352</v>
+        <v>1030473.0229735</v>
       </c>
       <c r="D8">
-        <v>1223801</v>
+        <v>1228209.609252516</v>
       </c>
       <c r="E8">
-        <v>1326676</v>
+        <v>1334096.69295451</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>198378</v>
+        <v>199454.2841605958</v>
       </c>
       <c r="C9">
-        <v>279036</v>
+        <v>280426.2657429983</v>
       </c>
       <c r="D9">
-        <v>317034</v>
+        <v>318482.8156063193</v>
       </c>
       <c r="E9">
-        <v>342378</v>
+        <v>344244.995487882</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>85260</v>
+        <v>85634.35353239594</v>
       </c>
       <c r="C10">
-        <v>116874</v>
+        <v>117364.6452962163</v>
       </c>
       <c r="D10">
-        <v>134589</v>
+        <v>134775.7304153467</v>
       </c>
       <c r="E10">
-        <v>142588</v>
+        <v>142995.7798438304</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>15664</v>
+        <v>15740.31468564153</v>
       </c>
       <c r="C11">
-        <v>20415</v>
+        <v>20485.15811294451</v>
       </c>
       <c r="D11">
-        <v>23130</v>
+        <v>23259.24230106769</v>
       </c>
       <c r="E11">
-        <v>26544</v>
+        <v>26626.23532188547</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>37440</v>
+        <v>37527.28018678263</v>
       </c>
       <c r="C12">
-        <v>53600</v>
+        <v>53768.00001602747</v>
       </c>
       <c r="D12">
-        <v>61240</v>
+        <v>61460.37232183362</v>
       </c>
       <c r="E12">
-        <v>64194</v>
+        <v>64361.18566302748</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>47922</v>
+        <v>48128.78275800219</v>
       </c>
       <c r="C13">
-        <v>65136</v>
+        <v>65393.02664912661</v>
       </c>
       <c r="D13">
-        <v>75705</v>
+        <v>75816.81769483958</v>
       </c>
       <c r="E13">
-        <v>81095</v>
+        <v>81388.17461996997</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_Fiets.xlsx
@@ -391,10 +391,10 @@
         <v>186262.312244738</v>
       </c>
       <c r="C2">
-        <v>270117.1320619749</v>
+        <v>270117.1320619751</v>
       </c>
       <c r="D2">
-        <v>316273.2183627473</v>
+        <v>316273.2183627474</v>
       </c>
       <c r="E2">
         <v>341341.5844877228</v>
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>225117.3819338269</v>
+        <v>225117.3819338268</v>
       </c>
       <c r="C3">
-        <v>323747.5607002651</v>
+        <v>323747.5607002649</v>
       </c>
       <c r="D3">
-        <v>373956.5822425464</v>
+        <v>373956.5822425465</v>
       </c>
       <c r="E3">
-        <v>405779.931373395</v>
+        <v>405779.9313733953</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>155394.6062134071</v>
+        <v>155394.6062134072</v>
       </c>
       <c r="C5">
-        <v>219786.4634951173</v>
+        <v>219786.4634951174</v>
       </c>
       <c r="D5">
         <v>246916.6157535585</v>
       </c>
       <c r="E5">
-        <v>269805.9494044766</v>
+        <v>269805.9494044767</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>136716.9600814675</v>
+        <v>136716.9600814676</v>
       </c>
       <c r="C6">
-        <v>192827.5739427786</v>
+        <v>192827.5739427787</v>
       </c>
       <c r="D6">
-        <v>218716.889540656</v>
+        <v>218716.8895406558</v>
       </c>
       <c r="E6">
-        <v>236080.4277308756</v>
+        <v>236080.4277308758</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>14675.8668519096</v>
+        <v>14675.86685190959</v>
       </c>
       <c r="C7">
         <v>20468.52016431294</v>
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>705765.2691399819</v>
+        <v>705765.2691399812</v>
       </c>
       <c r="C8">
         <v>1030473.0229735</v>
       </c>
       <c r="D8">
-        <v>1228209.609252516</v>
+        <v>1228209.609252517</v>
       </c>
       <c r="E8">
         <v>1334096.69295451</v>
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>199454.2841605958</v>
+        <v>199454.2841605956</v>
       </c>
       <c r="C9">
-        <v>280426.2657429983</v>
+        <v>280426.2657429985</v>
       </c>
       <c r="D9">
-        <v>318482.8156063193</v>
+        <v>318482.8156063197</v>
       </c>
       <c r="E9">
-        <v>344244.995487882</v>
+        <v>344244.9954878822</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>85634.35353239594</v>
+        <v>85634.35353239597</v>
       </c>
       <c r="C10">
-        <v>117364.6452962163</v>
+        <v>117364.6452962162</v>
       </c>
       <c r="D10">
-        <v>134775.7304153467</v>
+        <v>134775.7304153468</v>
       </c>
       <c r="E10">
-        <v>142995.7798438304</v>
+        <v>142995.7798438305</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -544,13 +544,13 @@
         <v>15740.31468564153</v>
       </c>
       <c r="C11">
-        <v>20485.15811294451</v>
+        <v>20485.15811294452</v>
       </c>
       <c r="D11">
-        <v>23259.24230106769</v>
+        <v>23259.2423010677</v>
       </c>
       <c r="E11">
-        <v>26626.23532188547</v>
+        <v>26626.23532188544</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>37527.28018678263</v>
+        <v>37527.28018678262</v>
       </c>
       <c r="C12">
         <v>53768.00001602747</v>
       </c>
       <c r="D12">
-        <v>61460.37232183362</v>
+        <v>61460.37232183365</v>
       </c>
       <c r="E12">
-        <v>64361.18566302748</v>
+        <v>64361.18566302746</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>48128.78275800219</v>
+        <v>48128.78275800218</v>
       </c>
       <c r="C13">
         <v>65393.02664912661</v>
       </c>
       <c r="D13">
-        <v>75816.81769483958</v>
+        <v>75816.8176948396</v>
       </c>
       <c r="E13">
-        <v>81388.17461996997</v>
+        <v>81388.17461996996</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>186262.312244738</v>
+        <v>186262</v>
       </c>
       <c r="C2">
-        <v>270117.1320619751</v>
+        <v>270117</v>
       </c>
       <c r="D2">
-        <v>316273.2183627474</v>
+        <v>316273</v>
       </c>
       <c r="E2">
-        <v>341341.5844877228</v>
+        <v>341342</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>225117.3819338268</v>
+        <v>225117</v>
       </c>
       <c r="C3">
-        <v>323747.5607002649</v>
+        <v>323748</v>
       </c>
       <c r="D3">
-        <v>373956.5822425465</v>
+        <v>373957</v>
       </c>
       <c r="E3">
-        <v>405779.9313733953</v>
+        <v>405780</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>201010.1057277275</v>
+        <v>201010</v>
       </c>
       <c r="C4">
-        <v>299609.6048645193</v>
+        <v>299610</v>
       </c>
       <c r="D4">
-        <v>354511.2290197113</v>
+        <v>354511</v>
       </c>
       <c r="E4">
-        <v>387666.0245078456</v>
+        <v>387666</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>155394.6062134072</v>
+        <v>155395</v>
       </c>
       <c r="C5">
-        <v>219786.4634951174</v>
+        <v>219786</v>
       </c>
       <c r="D5">
-        <v>246916.6157535585</v>
+        <v>246917</v>
       </c>
       <c r="E5">
-        <v>269805.9494044767</v>
+        <v>269806</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>136716.9600814676</v>
+        <v>136717</v>
       </c>
       <c r="C6">
-        <v>192827.5739427787</v>
+        <v>192828</v>
       </c>
       <c r="D6">
-        <v>218716.8895406558</v>
+        <v>218717</v>
       </c>
       <c r="E6">
-        <v>236080.4277308758</v>
+        <v>236080</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>14675.86685190959</v>
+        <v>14676</v>
       </c>
       <c r="C7">
-        <v>20468.52016431294</v>
+        <v>20469</v>
       </c>
       <c r="D7">
-        <v>23275.2447736936</v>
+        <v>23275</v>
       </c>
       <c r="E7">
-        <v>24997.44314802386</v>
+        <v>24997</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>705765.2691399812</v>
+        <v>705765</v>
       </c>
       <c r="C8">
-        <v>1030473.0229735</v>
+        <v>1030473</v>
       </c>
       <c r="D8">
-        <v>1228209.609252517</v>
+        <v>1228210</v>
       </c>
       <c r="E8">
-        <v>1334096.69295451</v>
+        <v>1334097</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>199454.2841605956</v>
+        <v>199454</v>
       </c>
       <c r="C9">
-        <v>280426.2657429985</v>
+        <v>280426</v>
       </c>
       <c r="D9">
-        <v>318482.8156063197</v>
+        <v>318483</v>
       </c>
       <c r="E9">
-        <v>344244.9954878822</v>
+        <v>344245</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>85634.35353239597</v>
+        <v>85634</v>
       </c>
       <c r="C10">
-        <v>117364.6452962162</v>
+        <v>117365</v>
       </c>
       <c r="D10">
-        <v>134775.7304153468</v>
+        <v>134776</v>
       </c>
       <c r="E10">
-        <v>142995.7798438305</v>
+        <v>142996</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>15740.31468564153</v>
+        <v>15740</v>
       </c>
       <c r="C11">
-        <v>20485.15811294452</v>
+        <v>20485</v>
       </c>
       <c r="D11">
-        <v>23259.2423010677</v>
+        <v>23259</v>
       </c>
       <c r="E11">
-        <v>26626.23532188544</v>
+        <v>26626</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>37527.28018678262</v>
+        <v>37527</v>
       </c>
       <c r="C12">
-        <v>53768.00001602747</v>
+        <v>53768</v>
       </c>
       <c r="D12">
-        <v>61460.37232183365</v>
+        <v>61460</v>
       </c>
       <c r="E12">
-        <v>64361.18566302746</v>
+        <v>64361</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>48128.78275800218</v>
+        <v>48129</v>
       </c>
       <c r="C13">
-        <v>65393.02664912661</v>
+        <v>65393</v>
       </c>
       <c r="D13">
-        <v>75816.8176948396</v>
+        <v>75817</v>
       </c>
       <c r="E13">
-        <v>81388.17461996996</v>
+        <v>81388</v>
       </c>
     </row>
   </sheetData>
